--- a/target/Hasil_Profil_Responden.xlsx
+++ b/target/Hasil_Profil_Responden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\www\tesis\target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FA20C4-12E5-44C8-A6FC-D0540A0A3339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E2921B-3E9D-4206-841B-67E2E03A5A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1686,7 +1686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT376"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2620,25 +2622,25 @@
         <v>4</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI7">
         <v>1</v>
@@ -2665,7 +2667,7 @@
         <v>3</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>3</v>
@@ -3085,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR10">
         <v>3</v>
@@ -3695,7 +3697,7 @@
         <v>4</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>3</v>
@@ -3838,7 +3840,7 @@
         <v>2</v>
       </c>
       <c r="N16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O16">
         <v>2</v>
@@ -4255,10 +4257,10 @@
         <v>2</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19">
         <v>3</v>
@@ -4306,7 +4308,7 @@
         <v>3</v>
       </c>
       <c r="AD19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE19">
         <v>2</v>
@@ -5354,7 +5356,7 @@
         <v>86</v>
       </c>
       <c r="F27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -5774,7 +5776,7 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -5914,7 +5916,7 @@
         <v>62</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -6054,7 +6056,7 @@
         <v>86</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -7895,7 +7897,7 @@
         <v>3</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N45">
         <v>4</v>
@@ -8175,7 +8177,7 @@
         <v>4</v>
       </c>
       <c r="M47">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N47">
         <v>4</v>
@@ -8405,7 +8407,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <v>3</v>
@@ -8685,7 +8687,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR50">
         <v>3</v>
@@ -10278,7 +10280,7 @@
         <v>3</v>
       </c>
       <c r="N62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O62">
         <v>4</v>
@@ -10698,7 +10700,7 @@
         <v>3</v>
       </c>
       <c r="N65">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O65">
         <v>3</v>
@@ -13894,7 +13896,7 @@
         <v>62</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G88">
         <v>5</v>
@@ -15854,7 +15856,7 @@
         <v>50</v>
       </c>
       <c r="F102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G102">
         <v>3</v>
@@ -19709,7 +19711,7 @@
         <v>3</v>
       </c>
       <c r="AE129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF129">
         <v>3</v>
@@ -20129,7 +20131,7 @@
         <v>3</v>
       </c>
       <c r="AE132">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF132">
         <v>2</v>
@@ -22241,7 +22243,7 @@
         <v>3</v>
       </c>
       <c r="AI147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AJ147">
         <v>2</v>
@@ -23921,7 +23923,7 @@
         <v>4</v>
       </c>
       <c r="AI159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ159">
         <v>4</v>
@@ -24341,7 +24343,7 @@
         <v>2</v>
       </c>
       <c r="AI162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ162">
         <v>1</v>
@@ -24621,7 +24623,7 @@
         <v>3</v>
       </c>
       <c r="AI164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ164">
         <v>4</v>
@@ -24749,7 +24751,7 @@
         <v>3</v>
       </c>
       <c r="AE165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF165">
         <v>3</v>
@@ -25169,7 +25171,7 @@
         <v>3</v>
       </c>
       <c r="AE168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF168">
         <v>3</v>
@@ -36789,7 +36791,7 @@
         <v>4</v>
       </c>
       <c r="AE251">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AF251">
         <v>3</v>
@@ -40009,7 +40011,7 @@
         <v>3</v>
       </c>
       <c r="AE274">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF274">
         <v>3</v>
@@ -44632,10 +44634,10 @@
         <v>1</v>
       </c>
       <c r="AF307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH307">
         <v>2</v>
@@ -46315,7 +46317,7 @@
         <v>3</v>
       </c>
       <c r="AG319">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH319">
         <v>3</v>
@@ -46735,7 +46737,7 @@
         <v>3</v>
       </c>
       <c r="AG322">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH322">
         <v>3</v>
@@ -47149,7 +47151,7 @@
         <v>3</v>
       </c>
       <c r="AE325">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF325">
         <v>3</v>
@@ -47429,7 +47431,7 @@
         <v>3</v>
       </c>
       <c r="AE327">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF327">
         <v>3</v>
